--- a/src/i18n/import.xlsx
+++ b/src/i18n/import.xlsx
@@ -38,7 +38,7 @@
     <t>EN</t>
   </si>
   <si>
-    <t>JA</t>
+    <t>JP</t>
   </si>
   <si>
     <t>test.1</t>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1332,7 +1332,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A2 C2:D2 A3:D3 A4 D4 A5:D5 A6 C6:D6 A7:D10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A2 C2:D2 A3:D3 A4 D4 A5:D5 A6 C6:D6 A7:D10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>